--- a/config/weights/Metadata-Quality-Weights.xlsx
+++ b/config/weights/Metadata-Quality-Weights.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susheel/DATA/code/src/github.com/hdruk/datasets/config/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0512C580-354A-5C49-9A0B-A04D491D33B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85361D94-FC12-3B43-BE20-B5995A82DD2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16400" yWindow="-28340" windowWidth="25600" windowHeight="28340" xr2:uid="{995D6B0F-EEA3-1C47-AA4E-15299B43967E}"/>
+    <workbookView xWindow="-9200" yWindow="-28340" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{995D6B0F-EEA3-1C47-AA4E-15299B43967E}"/>
   </bookViews>
   <sheets>
     <sheet name="V1 V2 Mapping" sheetId="1" r:id="rId1"/>
     <sheet name="V1 Spec" sheetId="3" r:id="rId2"/>
     <sheet name="V1.5 Spec" sheetId="4" r:id="rId3"/>
-    <sheet name="V2 Spec" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="V2 Spec" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{EB3AFF87-E60C-394F-ACB1-220E7611EF47}">
+    <comment ref="H16" authorId="0" shapeId="0" xr:uid="{EB3AFF87-E60C-394F-ACB1-220E7611EF47}">
       <text>
         <r>
           <rPr>
@@ -66,41 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{A3843194-5567-C84D-B43F-E3E916EA9B07}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Microsoft Office User:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Added Weight for v2
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{E4141223-4997-704E-9BFF-9B850201E0B9}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{E4141223-4997-704E-9BFF-9B850201E0B9}">
       <text>
         <r>
           <rPr>
@@ -134,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{BD7E24BC-BCD9-DE4A-B6F0-A620518D42D0}">
+    <comment ref="G33" authorId="0" shapeId="0" xr:uid="{BD7E24BC-BCD9-DE4A-B6F0-A620518D42D0}">
       <text>
         <r>
           <rPr>
@@ -171,8 +138,52 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{25EEB538-FF54-7749-9967-1B731B5D9F3D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Removed Field
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="166">
   <si>
     <t>identifier</t>
   </si>
@@ -462,89 +473,221 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>dataUseLimitation</t>
-  </si>
-  <si>
-    <t>datauseRequirements</t>
-  </si>
-  <si>
-    <t>accessService</t>
+    <t>timeLag</t>
+  </si>
+  <si>
+    <t>Weighting</t>
+  </si>
+  <si>
+    <t>structuralMetadata.dataClassesCount</t>
+  </si>
+  <si>
+    <t>structuralMetadata.tableName</t>
+  </si>
+  <si>
+    <t>structuralMetadata.tableDescription</t>
+  </si>
+  <si>
+    <t>structuralMetadata.columnName</t>
+  </si>
+  <si>
+    <t>structuralMetadata.columnDescription</t>
+  </si>
+  <si>
+    <t>structuralMetadata.dataType</t>
+  </si>
+  <si>
+    <t>structuralMetadata.sensitive</t>
+  </si>
+  <si>
+    <t>accessibility.formatAndStandards.vocabularyEncodingScheme</t>
+  </si>
+  <si>
+    <t>accessibility.formatAndStandards.conformsTo</t>
+  </si>
+  <si>
+    <t>accessibility.formatAndStandards.language</t>
+  </si>
+  <si>
+    <t>accessibility.formatAndStandards.format</t>
+  </si>
+  <si>
+    <t>summary.title</t>
+  </si>
+  <si>
+    <t>summary.abstract</t>
+  </si>
+  <si>
+    <t>summary.contactPoint</t>
+  </si>
+  <si>
+    <t>summary.keywords</t>
+  </si>
+  <si>
+    <t>summary.doiName</t>
+  </si>
+  <si>
+    <t>summary.publisher.name</t>
+  </si>
+  <si>
+    <t>summary.publisher.contactPoint</t>
+  </si>
+  <si>
+    <t>summary.publisher.memberOf</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>V1 ==&gt; V2 Mapping</t>
+  </si>
+  <si>
+    <t>followup</t>
+  </si>
+  <si>
+    <t>pathway</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>investigations</t>
+  </si>
+  <si>
+    <t>tools</t>
+  </si>
+  <si>
+    <t>disambiguatingDescription</t>
+  </si>
+  <si>
+    <t>observationDate</t>
+  </si>
+  <si>
+    <t>measuredProperty</t>
+  </si>
+  <si>
+    <t>documentation.description</t>
+  </si>
+  <si>
+    <t>documentation.associatedMedia</t>
+  </si>
+  <si>
+    <t>summary.alternateIdentifiers</t>
+  </si>
+  <si>
+    <t>summary.publisher.identifier</t>
+  </si>
+  <si>
+    <t>summary.publisher.logo</t>
+  </si>
+  <si>
+    <t>documentation.isPartOf</t>
+  </si>
+  <si>
+    <t>summary.publisher.deliveryleadTime</t>
+  </si>
+  <si>
+    <t>summary.publisher.accessService</t>
+  </si>
+  <si>
+    <t>summary.publisher.accessRequestCost</t>
+  </si>
+  <si>
+    <t>summary.publisher.dataUseLimitation</t>
+  </si>
+  <si>
+    <t>summary.publisher.dataUseRequirements</t>
+  </si>
+  <si>
+    <t>setting</t>
+  </si>
+  <si>
+    <t>accessEnvironment</t>
+  </si>
+  <si>
+    <t>linkageOpportunity</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>**DUPLICATE**</t>
+  </si>
+  <si>
+    <t>usageRestrictions</t>
+  </si>
+  <si>
+    <t>REQ</t>
+  </si>
+  <si>
+    <t>OPT</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>summary.publisher.description</t>
+  </si>
+  <si>
+    <t>New Weights</t>
+  </si>
+  <si>
+    <t>populationType?</t>
+  </si>
+  <si>
+    <t>statisticalPopulation?</t>
+  </si>
+  <si>
+    <t>license?</t>
+  </si>
+  <si>
+    <t>usageRestrictions?</t>
   </si>
   <si>
     <t>memberOf</t>
   </si>
   <si>
-    <t>timeLag</t>
-  </si>
-  <si>
-    <t>G: V2 Spec Additional Fields</t>
-  </si>
-  <si>
-    <t>Weighting</t>
-  </si>
-  <si>
-    <t>structuralMetadata.dataClassesCount</t>
-  </si>
-  <si>
-    <t>structuralMetadata.tableName</t>
-  </si>
-  <si>
-    <t>structuralMetadata.tableDescription</t>
-  </si>
-  <si>
-    <t>structuralMetadata.columnName</t>
-  </si>
-  <si>
-    <t>structuralMetadata.columnDescription</t>
-  </si>
-  <si>
-    <t>structuralMetadata.dataType</t>
-  </si>
-  <si>
-    <t>structuralMetadata.sensitive</t>
-  </si>
-  <si>
-    <t>accessibility.formatAndStandards.vocabularyEncodingScheme</t>
-  </si>
-  <si>
-    <t>accessibility.formatAndStandards.conformsTo</t>
-  </si>
-  <si>
-    <t>accessibility.formatAndStandards.language</t>
-  </si>
-  <si>
-    <t>accessibility.formatAndStandards.format</t>
-  </si>
-  <si>
-    <t>summary.title</t>
-  </si>
-  <si>
-    <t>summary.abstract</t>
-  </si>
-  <si>
-    <t>summary.contactPoint</t>
-  </si>
-  <si>
-    <t>summary.keywords</t>
-  </si>
-  <si>
-    <t>summary.doiName</t>
-  </si>
-  <si>
-    <t>summary.publisher.name</t>
-  </si>
-  <si>
-    <t>summary.publisher.contactPoint</t>
-  </si>
-  <si>
-    <t>summary.publisher.memberOf</t>
+    <t>alternateIdentifiers</t>
+  </si>
+  <si>
+    <t>publisher.logo</t>
+  </si>
+  <si>
+    <t>publisher.description</t>
+  </si>
+  <si>
+    <t>publisher.identifier</t>
+  </si>
+  <si>
+    <t>publisher.contactPoint</t>
+  </si>
+  <si>
+    <t>publisher.deliveryleadTime</t>
+  </si>
+  <si>
+    <t>publisher.accessService</t>
+  </si>
+  <si>
+    <t>publisher.accessRequestCost</t>
+  </si>
+  <si>
+    <t>publisher.dataUseLimitation</t>
+  </si>
+  <si>
+    <t>publisher.dataUseRequirements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -630,6 +773,51 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -675,7 +863,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -786,12 +974,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -803,15 +1046,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -820,12 +1059,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -840,13 +1074,99 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,945 +1488,2077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6A415A-4C4C-344F-9CF3-865979E84061}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="3.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.5" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="5.5" style="66" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="41"/>
-    </row>
-    <row r="3" spans="2:6" s="37" customFormat="1" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="94"/>
+      <c r="I2" s="66"/>
+      <c r="K2" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="L2" s="77"/>
+    </row>
+    <row r="3" spans="2:12" s="30" customFormat="1" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="67"/>
+    </row>
+    <row r="4" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="28">
         <f>SUM(C5:C11)</f>
         <v>0.14285714399999999</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="G4" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32">
-        <f>SUM(F5:F13)</f>
+      <c r="H4" s="45">
+        <f>SUM(H5:H17)</f>
         <v>0.14285714399999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="K4" s="76">
+        <f>SUM(K5:K22)</f>
+        <v>0.20567375886524819</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="10">
         <v>1.5873016E-2</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="35"/>
+      <c r="E5" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42">
         <f>C5</f>
         <v>1.5873016E-2</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="22" t="s">
+      <c r="I5" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="69">
+        <f>IF(I5="MAN",4,IF(I5="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="70">
+        <f t="shared" ref="K5:K22" si="0">J5/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="80" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="5">
         <v>1.5873016E-2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D6" s="35"/>
+      <c r="E6" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="43">
         <f>C6</f>
         <v>1.5873016E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+      <c r="I6" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" s="30">
+        <f t="shared" ref="J6:J22" si="1">IF(I6="MAN",4,IF(I6="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="72">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="80" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5">
         <v>1.5873016E-2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7" s="35"/>
+      <c r="E7" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="43">
         <f>C7</f>
         <v>1.5873016E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="22" t="s">
+      <c r="I7" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J7" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K7" s="72">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="80" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="5">
         <v>1.5873016E-2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="D8" s="35"/>
+      <c r="E8" s="85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="43">
         <f>C9</f>
         <v>3.1746032E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
+      <c r="I8" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K8" s="72">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="5">
         <v>3.1746032E-2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="5">
-        <f>C34</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="22" t="s">
+      <c r="D9" s="35"/>
+      <c r="E9" s="85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="43">
+        <f>C39</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J9" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="72">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="80" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="5">
         <v>3.1746032E-2</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F10" s="5">
-        <f>C46</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="23" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="43">
+        <f>C40</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="7">
         <v>1.5873016E-2</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="D11" s="35"/>
+      <c r="E11" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="43">
+        <f>C55</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J11" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K11" s="72">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="61">
+        <f>SUM(C14:C24)</f>
+        <v>0.23809523999999999</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="43">
         <f>C8</f>
         <v>1.5873016E-2</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="E12" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="35">
-        <f>SUM(C14:C22)</f>
-        <v>0.23809523999999999</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F13" s="29">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" s="30">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K13" s="72">
+        <f t="shared" si="0"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <v>3.1746032E-2</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="50"/>
+      <c r="G14" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="92"/>
+      <c r="G15" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="H15" s="43">
+        <v>0</v>
+      </c>
+      <c r="I15" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>3.1746032E-2</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="32">
-        <f>SUM(F16:F18)</f>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
-        <v>9</v>
       </c>
       <c r="C16" s="5">
         <v>3.1746032E-2</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="5">
+      <c r="D16" s="35"/>
+      <c r="E16" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="32"/>
+      <c r="G16" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="49">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" s="30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="72">
+        <f t="shared" si="0"/>
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="32"/>
+      <c r="G18" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="43">
+        <v>0</v>
+      </c>
+      <c r="I18" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="48">
+        <v>0</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="43">
+        <v>0</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" s="43">
+        <v>0</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="G21" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="43">
+        <v>0</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="72">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H22" s="44">
+        <v>0</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="32"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="G24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="25">
+        <f>SUM(H25:H27)</f>
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="76">
+        <f>SUM(K25:K27)</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="48">
+        <v>0</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H25" s="5">
         <f>C14</f>
         <v>3.1746032E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5">
+      <c r="I25" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J25" s="69">
+        <f>IF(I25="MAN",4,IF(I25="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K25" s="70">
+        <f>J25/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="62">
+        <v>0</v>
+      </c>
+      <c r="D26" s="35"/>
+      <c r="E26" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="30">
+        <f t="shared" ref="J26:J27" si="2">IF(I26="MAN",4,IF(I26="REQ",1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="72">
+        <f>J26/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="35"/>
+      <c r="E27" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H27" s="7">
+        <f>C11</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I27" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="75">
+        <f>J27/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="61">
+        <f>SUM(C29:C39)</f>
+        <v>0.20634920799999995</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="G29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="25">
+        <f>SUM(H30:H34)</f>
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="J29" s="30"/>
+      <c r="K29" s="76">
+        <f>SUM(K30:K34)</f>
+        <v>8.5106382978723402E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5">
         <v>3.1746032E-2</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="7">
-        <f>C11</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="D30" s="35"/>
+      <c r="E30" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="9">
+        <f>C29</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I30" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J30" s="69">
+        <f>IF(I30="MAN",4,IF(I30="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K30" s="70">
+        <f>J30/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5">
         <v>3.1746032E-2</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="32">
-        <f>SUM(F21:F25)</f>
+      <c r="D31" s="35"/>
+      <c r="E31" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="9">
+        <f>C37</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I31" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="30">
+        <f t="shared" ref="J31:J34" si="3">IF(I31="MAN",4,IF(I31="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K31" s="72">
+        <f>J31/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="9">
+        <f>C38</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I32" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J32" s="30">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K32" s="72">
+        <f>J32/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D33" s="35"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="95">
+        <v>0</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="72">
+        <f>J33/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="96">
+        <v>0</v>
+      </c>
+      <c r="I34" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="74">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="75">
+        <f>J34/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="48">
+        <v>0</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="G36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="25">
+        <f>SUM(H37:H44)</f>
+        <v>0.14285714399999999</v>
+      </c>
+      <c r="J36" s="30"/>
+      <c r="K36" s="76">
+        <f>SUM(K37:K44)</f>
+        <v>5.6737588652482268E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="68" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="69">
+        <f>IF(I37="MAN",4,IF(I37="REQ",1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="70">
+        <f t="shared" ref="K37:K44" si="4">J37/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="30">
+        <f t="shared" ref="J38:J44" si="5">IF(I38="MAN",4,IF(I38="REQ",1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="9">
+        <f>C30</f>
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K40" s="72">
+        <f t="shared" si="4"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H41" s="9">
+        <f>C16</f>
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="I41" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="9">
+        <f>C32</f>
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="I42" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" s="30">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K42" s="72">
+        <f t="shared" si="4"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="D43" s="34"/>
+      <c r="E43" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H43" s="9">
+        <f>C31</f>
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="I43" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="35"/>
+      <c r="E44" s="86"/>
+      <c r="G44" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="96">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I44" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="75">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="28">
+        <f>SUM(C46:C50)</f>
+        <v>7.9365080000000005E-2</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="J45" s="30"/>
+    </row>
+    <row r="46" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="G46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="25">
+        <f>SUM(H47:H62)</f>
+        <v>0.28571428799999998</v>
+      </c>
+      <c r="J46" s="30"/>
+      <c r="K46" s="76">
+        <f>SUM(K47:K62)</f>
+        <v>0.34751773049645379</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" s="95">
+        <f>C34</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I47" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J47" s="69">
+        <f>IF(I47="MAN",4,IF(I47="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K47" s="70">
+        <f t="shared" ref="K47:K62" si="6">J47/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D48" s="36"/>
+      <c r="E48" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="95">
+        <f>C35</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I48" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="30">
+        <f t="shared" ref="J48:J62" si="7">IF(I48="MAN",4,IF(I48="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K48" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H49" s="9">
+        <f>C53</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I49" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K49" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D50" s="35"/>
+      <c r="E50" s="50"/>
+      <c r="G50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="95">
+        <v>0</v>
+      </c>
+      <c r="I50" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="9">
+        <f>C54</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I51" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="28">
+        <f>SUM(C53:C55)</f>
         <v>4.7619047999999997E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="5">
-        <f>C25</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="7">
-        <v>3.1746032E-2</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="5">
-        <f>C32</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="E23" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="5">
-        <f>C33</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="35">
-        <f>SUM(C25:C34)</f>
-        <v>0.20634920799999995</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="5">
-        <v>3.1746032E-2</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3.1746032E-2</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="32">
-        <f>SUM(F28:F36)</f>
-        <v>0.14285714399999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B28" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="5">
-        <v>3.1746032E-2</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B29" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="5">
-        <f>C26</f>
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="5">
-        <f>C15</f>
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="5">
-        <f>C28</f>
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
-      <c r="C35" s="9"/>
-      <c r="E35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="5">
-        <f>C27</f>
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="35">
-        <f>SUM(C37:C41)</f>
-        <v>7.9365080000000005E-2</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="29">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="32">
-        <f>SUM(F39:F55)</f>
-        <v>0.28571428799999998</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B39" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="28">
-        <f>C30</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B40" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="28">
-        <f>C31</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="5">
-        <f>C44</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
-      <c r="C42" s="9"/>
-      <c r="E42" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="35">
-        <f>SUM(C44:C46)</f>
-        <v>4.7619047999999997E-2</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="5">
-        <f>C45</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E44" s="4" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="5">
+      <c r="H52" s="9">
         <f>C10</f>
         <v>3.1746032E-2</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="22" t="s">
+      <c r="I52" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J52" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K52" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D53" s="35"/>
+      <c r="E53" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="95">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I53" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="J53" s="30">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="72">
+        <f t="shared" si="6"/>
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="5">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="28">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="23" t="s">
+      <c r="C54" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="85" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="9">
+        <f>C17</f>
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="I54" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K54" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="7">
-        <v>1.5873016E-2</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F46" s="5">
-        <f>C16</f>
+      <c r="C55" s="7">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="D55" s="35"/>
+      <c r="E55" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="11">
+        <f>C18</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I55" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K55" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="9">
+        <f>C33</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I56" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J56" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K56" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="27">
+        <f>SUM(C58:C64)</f>
+        <v>0.28571428799999998</v>
+      </c>
+      <c r="E57" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="H57" s="9">
+        <f>C20</f>
         <v>3.1746032E-2</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="E47" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="5">
-        <f>C17</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="34">
-        <f>SUM(C49:C55)</f>
+      <c r="I57" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J57" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K57" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E58" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H58" s="9">
+        <f>C21</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I58" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J58" s="30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E59" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H59" s="9">
+        <f>C47</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I59" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J59" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K59" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E60" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="9">
+        <f>C46</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I60" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J60" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K60" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E61" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="9">
+        <f>C48</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I61" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J61" s="30">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K61" s="72">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E62" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="H62" s="97">
+        <f>C49</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I62" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J62" s="74">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="K62" s="75">
+        <f t="shared" si="6"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E63" s="35"/>
+      <c r="J63" s="30"/>
+    </row>
+    <row r="64" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="35"/>
+      <c r="G64" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" s="25">
+        <f>SUM(H65:H67)</f>
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="J64" s="30"/>
+      <c r="K64" s="76">
+        <f>SUM(K65:K67)</f>
+        <v>2.1276595744680851E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="29">
+        <f>SUM(C58:C64,C53:C55,C46:C50,C29:C39,C14:C24,C5:C11)</f>
+        <v>1.0000000080000007</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" s="98">
+        <f>C24</f>
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="I65" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="J65" s="69">
+        <f>IF(I65="MAN",4,IF(I65="REQ",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K65" s="70">
+        <f>J65/$J$84</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E66" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" s="9">
+        <f>C23</f>
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="I66" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="J66" s="30">
+        <f t="shared" ref="J66:J67" si="8">IF(I66="MAN",4,IF(I66="REQ",1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="K66" s="72">
+        <f>J66/$J$84</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="52"/>
+      <c r="G67" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="96">
+        <v>0</v>
+      </c>
+      <c r="I67" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" s="74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K67" s="75">
+        <f>J67/$J$84</f>
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J68" s="30"/>
+    </row>
+    <row r="69" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" s="45">
+        <f>SUM(H70:H74)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="30"/>
+      <c r="K69" s="76">
+        <f>SUM(K70:K74)</f>
+        <v>5.6737588652482268E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E70" s="88" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" s="99">
+        <v>0</v>
+      </c>
+      <c r="I70" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J70" s="69">
+        <f>IF(I70="MAN",4,IF(I70="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K70" s="70">
+        <f>J70/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E71" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="H71" s="95">
+        <v>0</v>
+      </c>
+      <c r="I71" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J71" s="30">
+        <f t="shared" ref="J71:J74" si="9">IF(I71="MAN",4,IF(I71="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K71" s="72">
+        <f>J71/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E72" s="49"/>
+      <c r="G72" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="95">
+        <v>0</v>
+      </c>
+      <c r="I72" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J72" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="72">
+        <f>J72/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E73" s="49"/>
+      <c r="G73" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H73" s="95">
+        <v>0</v>
+      </c>
+      <c r="I73" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="J73" s="30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="72">
+        <f>J73/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="53"/>
+      <c r="G74" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="96">
+        <v>0</v>
+      </c>
+      <c r="I74" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="J74" s="74">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="75">
+        <f>J74/$J$84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="30"/>
+    </row>
+    <row r="76" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G76" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="25">
+        <f>SUM(H77:H83)</f>
         <v>0.28571428799999998</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F48" s="5">
-        <f>C29</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="22" t="s">
+      <c r="J76" s="30"/>
+      <c r="K76" s="76">
+        <f>SUM(K77:K83)</f>
+        <v>0.1985815602836879</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E77" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="5">
+      <c r="G77" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" s="9">
+        <f t="shared" ref="H77:H83" si="10">C58</f>
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="5">
-        <f>C18</f>
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="22" t="s">
+      <c r="I77" s="68" t="s">
+        <v>148</v>
+      </c>
+      <c r="J77" s="69">
+        <f>IF(I77="MAN",4,IF(I77="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K77" s="70">
+        <f t="shared" ref="K77:K83" si="11">J77/$J$84</f>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E78" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="5">
+      <c r="G78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H78" s="9">
+        <f t="shared" si="10"/>
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F50" s="5">
-        <f>C19</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="22" t="s">
+      <c r="I78" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78" s="30">
+        <f t="shared" ref="J78:J83" si="12">IF(I78="MAN",4,IF(I78="REQ",1,0))</f>
+        <v>4</v>
+      </c>
+      <c r="K78" s="72">
+        <f t="shared" si="11"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E79" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="5">
+      <c r="G79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" s="9">
+        <f t="shared" si="10"/>
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="15"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="22" t="s">
+      <c r="I79" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J79" s="30">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K79" s="72">
+        <f t="shared" si="11"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E80" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="5">
+      <c r="G80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H80" s="9">
+        <f t="shared" si="10"/>
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="5">
-        <f>C38</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B53" s="22" t="s">
+      <c r="I80" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J80" s="30">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K80" s="72">
+        <f t="shared" si="11"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E81" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C53" s="5">
+      <c r="G81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" s="9">
+        <f t="shared" si="10"/>
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="5">
-        <f>C37</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="22" t="s">
+      <c r="I81" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J81" s="30">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K81" s="72">
+        <f t="shared" si="11"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E82" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="5">
+      <c r="G82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="9">
+        <f t="shared" si="10"/>
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="5">
-        <f>C39</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="23" t="s">
+      <c r="I82" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J82" s="30">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K82" s="72">
+        <f t="shared" si="11"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="7">
-        <f>C40</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="36">
-        <f>SUM(C49:C55,C44:C46,C37:C41,C25:C34,C14:C22,C5:C11)</f>
-        <v>1.0000000080000007</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="32">
-        <f>SUM(F58:F60)</f>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E58" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="F58" s="10">
-        <f>C22</f>
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E59" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F59" s="5">
-        <f>C21</f>
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E60" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F60" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E62" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="32">
-        <f>SUM(F63:F67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E63" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F63" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E64" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F64" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E65" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F65" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E66" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F66" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="F67" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="5:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F69" s="32">
-        <f>SUM(F70:F76)</f>
-        <v>0.28571428799999998</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="F70" s="5">
-        <f t="shared" ref="F70:F76" si="0">C49</f>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E71" s="4" t="s">
+      <c r="G83" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F71" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E72" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E73" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E74" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E75" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F75" s="5">
-        <f t="shared" si="0"/>
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E76" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F76" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E77" s="1"/>
-      <c r="F77" s="33">
-        <f>SUM(F5:F13,F16:F18,F21:F25,F28:F36,F39:F55,F58:F60,F63:F67,F70:F76)</f>
+      <c r="H83" s="97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="J83" s="74">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="K83" s="75">
+        <f t="shared" si="11"/>
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G84" s="1"/>
+      <c r="H84" s="26">
+        <f>SUM(H5:H17,H25:H27,H30:H34,H37:H44,H47:H62,H65:H67,H70:H74,H77:H83)</f>
         <v>1.0000000080000004</v>
       </c>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E78" s="1"/>
-      <c r="F78" s="31"/>
+      <c r="J84" s="1">
+        <f>SUM(J5:J83)</f>
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2138,7 +3590,7 @@
         <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,20 +4052,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A232B5-B804-F542-A152-E639116A203C}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>93</v>
       </c>
@@ -2621,522 +4075,1740 @@
         <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>2.8368794326241134E-2</v>
+      </c>
+      <c r="E5" s="65"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
       <c r="C10">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>157</v>
       </c>
       <c r="C11">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>158</v>
       </c>
       <c r="C12">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
+        <v>47</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>160</v>
       </c>
       <c r="C13">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>155</v>
       </c>
       <c r="C14">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>161</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>162</v>
       </c>
       <c r="C16">
-        <v>1.5873016E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>163</v>
       </c>
       <c r="C17">
-        <v>3.1746032E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
+        <v>47</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>164</v>
       </c>
       <c r="C18">
-        <v>1.5873016E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21">
-        <v>3.1746032E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C31" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="65">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C45">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C55">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C56">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" t="s">
         <v>34</v>
       </c>
-      <c r="C36">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C60">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C37">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C61">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C38">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C62">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
         <v>37</v>
       </c>
-      <c r="C39">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C63">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="C40">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C64">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
         <v>39</v>
       </c>
-      <c r="C41">
-        <v>4.7619047999999997E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C65">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+      <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46">
-        <v>1.5873016E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>101</v>
-      </c>
-      <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47">
-        <v>1.5873016E-2</v>
+      <c r="C66">
+        <v>2.8368794326241134E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE3C14-E62B-4E42-8D85-5A7A0A1D9816}">
+  <dimension ref="B1:F84"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.5" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="E2" s="93" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="94"/>
+    </row>
+    <row r="3" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="28">
+        <f>SUM(C5:C11)</f>
+        <v>0.14285714399999999</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="45">
+        <v>0.20567375886524819</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="42">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="E12" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="61">
+        <f>SUM(C14:C24)</f>
+        <v>0.23809523999999999</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="48">
+        <v>0</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="49">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="48">
+        <v>0</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="25">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="48">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="62">
+        <v>0</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="61">
+        <f>SUM(C29:C39)</f>
+        <v>0.20634920799999995</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="25">
+        <v>8.5106382978723402E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3.1746032E-2</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="48">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="25">
+        <v>5.6737588652482268E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E37" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="F40" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="E43" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="E44" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="28">
+        <f>SUM(C46:C50)</f>
+        <v>7.9365080000000005E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="25">
+        <v>0.34751773049645379</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="49">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="49">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="7">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="E51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="28">
+        <f>SUM(C53:C55)</f>
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E52" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B53" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E53" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="49">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F54" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1.5873016E-2</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F55" s="39">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="E56" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F56" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="27">
+        <f>SUM(C58:C64)</f>
+        <v>0.28571428799999998</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F57" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F58" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E60" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E61" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" s="43">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+      <c r="E62" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="44">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="5">
+        <v>4.7619047999999997E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="25">
+        <v>2.1276595744680851E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="2"/>
+      <c r="C65" s="29">
+        <f>SUM(C58:C64,C53:C55,C46:C50,C29:C39,C14:C24,C5:C11)</f>
+        <v>1.0000000080000007</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F65" s="98">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66" s="9">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E67" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="96">
+        <v>7.0921985815602835E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E69" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F69" s="45">
+        <v>5.6737588652482268E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E70" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F70" s="99">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E71" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F71" s="95">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E72" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F72" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F73" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E74" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E76" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="25">
+        <v>0.1985815602836879</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E77" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="9">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="9">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="9">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="9">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F81" s="9">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F82" s="9">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F83" s="97">
+        <v>2.8368794326241134E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+      <c r="F84" s="26">
+        <f>SUM(F5:F17,F25:F27,F30:F34,F37:F44,F47:F62,F65:F67,F70:F74,F77:F83)</f>
+        <v>1.0000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B8E6FA-0BA2-414A-BC76-9C6F12BCE533}">
   <dimension ref="A1:C57"/>
   <sheetViews>
@@ -3177,7 +5849,7 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>1.5873016E-2</v>
@@ -3188,7 +5860,7 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>1.5873016E-2</v>
@@ -3199,7 +5871,7 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>3.1746032E-2</v>
@@ -3210,7 +5882,7 @@
         <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>1.5873016E-2</v>
@@ -3221,7 +5893,7 @@
         <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>1.5873016E-2</v>
@@ -3232,7 +5904,7 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>1.5873016E-2</v>
@@ -3243,7 +5915,7 @@
         <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3254,7 +5926,7 @@
         <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>1.5873016E-2</v>
@@ -3573,7 +6245,7 @@
         <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C39">
         <v>1.5873016E-2</v>
@@ -3584,7 +6256,7 @@
         <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C40">
         <v>1.5873016E-2</v>
@@ -3595,7 +6267,7 @@
         <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C41">
         <v>1.5873016E-2</v>
@@ -3606,7 +6278,7 @@
         <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C42">
         <v>1.5873016E-2</v>
@@ -3705,7 +6377,7 @@
         <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C51">
         <v>4.7619047999999997E-2</v>
@@ -3716,7 +6388,7 @@
         <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>4.7619047999999997E-2</v>
@@ -3727,7 +6399,7 @@
         <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C53">
         <v>4.7619047999999997E-2</v>
@@ -3738,7 +6410,7 @@
         <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>4.7619047999999997E-2</v>
@@ -3749,7 +6421,7 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C55">
         <v>4.7619047999999997E-2</v>
@@ -3760,7 +6432,7 @@
         <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C56">
         <v>4.7619047999999997E-2</v>
@@ -3771,7 +6443,7 @@
         <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C57">
         <v>0</v>

--- a/config/weights/Metadata-Quality-Weights.xlsx
+++ b/config/weights/Metadata-Quality-Weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susheel/DATA/code/src/github.com/hdruk/datasets/config/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85361D94-FC12-3B43-BE20-B5995A82DD2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E3B36E-FA80-EB4C-BC7E-DF83C0AE3848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9200" yWindow="-28340" windowWidth="51200" windowHeight="28340" activeTab="3" xr2:uid="{995D6B0F-EEA3-1C47-AA4E-15299B43967E}"/>
+    <workbookView xWindow="-9200" yWindow="-28340" windowWidth="25600" windowHeight="28340" activeTab="2" xr2:uid="{995D6B0F-EEA3-1C47-AA4E-15299B43967E}"/>
   </bookViews>
   <sheets>
     <sheet name="V1 V2 Mapping" sheetId="1" r:id="rId1"/>
@@ -1034,7 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1154,12 +1154,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1167,6 +1161,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1490,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6A415A-4C4C-344F-9CF3-865979E84061}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K83"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,18 +1513,18 @@
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:12" s="1" customFormat="1" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="94"/>
+      <c r="C2" s="101"/>
       <c r="D2" s="31"/>
       <c r="E2" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="94"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="66"/>
       <c r="K2" s="78" t="s">
         <v>150</v>
@@ -1557,7 +1559,7 @@
       </c>
       <c r="K4" s="76">
         <f>SUM(K5:K22)</f>
-        <v>0.20567375886524819</v>
+        <v>0.19463087248322145</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -1588,7 +1590,7 @@
       </c>
       <c r="K5" s="70">
         <f t="shared" ref="K5:K22" si="0">J5/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1619,7 +1621,7 @@
       </c>
       <c r="K6" s="72">
         <f t="shared" si="0"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
@@ -1650,7 +1652,7 @@
       </c>
       <c r="K7" s="72">
         <f t="shared" si="0"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
@@ -1681,7 +1683,7 @@
       </c>
       <c r="K8" s="72">
         <f t="shared" si="0"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
@@ -1712,7 +1714,7 @@
       </c>
       <c r="K9" s="72">
         <f t="shared" si="0"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
@@ -1772,7 +1774,7 @@
       </c>
       <c r="K11" s="72">
         <f t="shared" si="0"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1828,7 +1830,7 @@
       </c>
       <c r="K13" s="72">
         <f t="shared" si="0"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -1941,7 +1943,7 @@
       </c>
       <c r="K17" s="72">
         <f t="shared" si="0"/>
-        <v>7.0921985815602835E-3</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
@@ -2122,7 +2124,7 @@
       <c r="J24" s="30"/>
       <c r="K24" s="76">
         <f>SUM(K25:K27)</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -2152,7 +2154,7 @@
       </c>
       <c r="K25" s="70">
         <f>J25/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2240,7 +2242,7 @@
       <c r="J29" s="30"/>
       <c r="K29" s="76">
         <f>SUM(K30:K34)</f>
-        <v>8.5106382978723402E-2</v>
+        <v>9.3959731543624164E-2</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
@@ -2270,7 +2272,7 @@
       </c>
       <c r="K30" s="70">
         <f>J30/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
@@ -2301,7 +2303,7 @@
       </c>
       <c r="K31" s="72">
         <f>J31/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
@@ -2332,7 +2334,7 @@
       </c>
       <c r="K32" s="72">
         <f>J32/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="18" x14ac:dyDescent="0.2">
@@ -2348,19 +2350,19 @@
       <c r="G33" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H33" s="95">
+      <c r="H33" s="93">
         <v>0</v>
       </c>
       <c r="I33" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J33" s="30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="72">
         <f>J33/$J$84</f>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2376,19 +2378,19 @@
       <c r="G34" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="96">
+      <c r="H34" s="94">
         <v>0</v>
       </c>
       <c r="I34" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J34" s="74">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="75">
         <f>J34/$J$84</f>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2422,7 +2424,7 @@
       <c r="J36" s="30"/>
       <c r="K36" s="76">
         <f>SUM(K37:K44)</f>
-        <v>5.6737588652482268E-2</v>
+        <v>8.0536912751677861E-2</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -2443,15 +2445,15 @@
         <v>0</v>
       </c>
       <c r="I37" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J37" s="69">
         <f>IF(I37="MAN",4,IF(I37="REQ",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="70">
         <f t="shared" ref="K37:K44" si="4">J37/$J$84</f>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
@@ -2472,15 +2474,15 @@
         <v>0</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J38" s="30">
         <f t="shared" ref="J38:J44" si="5">IF(I38="MAN",4,IF(I38="REQ",1,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="72">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
@@ -2501,15 +2503,15 @@
         <v>0</v>
       </c>
       <c r="I39" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J39" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="72">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
@@ -2539,7 +2541,7 @@
       </c>
       <c r="K40" s="72">
         <f t="shared" si="4"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
@@ -2599,7 +2601,7 @@
       </c>
       <c r="K42" s="72">
         <f t="shared" si="4"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="18" x14ac:dyDescent="0.2">
@@ -2632,19 +2634,19 @@
       <c r="G44" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H44" s="96">
+      <c r="H44" s="94">
         <v>1.5873016E-2</v>
       </c>
       <c r="I44" s="73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J44" s="74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="75">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -2677,7 +2679,7 @@
       <c r="J46" s="30"/>
       <c r="K46" s="76">
         <f>SUM(K47:K62)</f>
-        <v>0.34751773049645379</v>
+        <v>0.34228187919463088</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
@@ -2694,7 +2696,7 @@
       <c r="G47" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="H47" s="95">
+      <c r="H47" s="93">
         <f>C34</f>
         <v>1.5873016E-2</v>
       </c>
@@ -2707,7 +2709,7 @@
       </c>
       <c r="K47" s="70">
         <f t="shared" ref="K47:K62" si="6">J47/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
@@ -2724,7 +2726,7 @@
       <c r="G48" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="95">
+      <c r="H48" s="93">
         <f>C35</f>
         <v>1.5873016E-2</v>
       </c>
@@ -2737,7 +2739,7 @@
       </c>
       <c r="K48" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
@@ -2767,7 +2769,7 @@
       </c>
       <c r="K49" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2782,19 +2784,19 @@
       <c r="G50" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H50" s="95">
+      <c r="H50" s="93">
         <v>0</v>
       </c>
       <c r="I50" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J50" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="72">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2812,15 +2814,15 @@
         <v>1.5873016E-2</v>
       </c>
       <c r="I51" s="71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J51" s="30">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="72">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -2851,7 +2853,7 @@
       </c>
       <c r="K52" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
@@ -2868,7 +2870,7 @@
       <c r="G53" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H53" s="95">
+      <c r="H53" s="93">
         <v>1.5873016E-2</v>
       </c>
       <c r="I53" s="71" t="s">
@@ -2880,7 +2882,7 @@
       </c>
       <c r="K53" s="72">
         <f t="shared" si="6"/>
-        <v>7.0921985815602835E-3</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
@@ -2910,7 +2912,7 @@
       </c>
       <c r="K54" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2940,7 +2942,7 @@
       </c>
       <c r="K55" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="56" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2966,7 +2968,7 @@
       </c>
       <c r="K56" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="57" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
@@ -2996,7 +2998,7 @@
       </c>
       <c r="K57" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
@@ -3054,7 +3056,7 @@
       </c>
       <c r="K59" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
@@ -3083,7 +3085,7 @@
       </c>
       <c r="K60" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
@@ -3112,7 +3114,7 @@
       </c>
       <c r="K61" s="72">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="62" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3125,10 +3127,10 @@
       <c r="E62" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="G62" s="100" t="s">
+      <c r="G62" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="H62" s="97">
+      <c r="H62" s="95">
         <f>C49</f>
         <v>1.5873016E-2</v>
       </c>
@@ -3141,7 +3143,7 @@
       </c>
       <c r="K62" s="75">
         <f t="shared" si="6"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3172,7 +3174,7 @@
       <c r="J64" s="30"/>
       <c r="K64" s="76">
         <f>SUM(K65:K67)</f>
-        <v>2.1276595744680851E-2</v>
+        <v>2.0134228187919462E-2</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
@@ -3187,7 +3189,7 @@
       <c r="G65" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="H65" s="98">
+      <c r="H65" s="96">
         <f>C24</f>
         <v>3.1746032E-2</v>
       </c>
@@ -3200,7 +3202,7 @@
       </c>
       <c r="K65" s="70">
         <f>J65/$J$84</f>
-        <v>7.0921985815602835E-3</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
@@ -3223,7 +3225,7 @@
       </c>
       <c r="K66" s="72">
         <f>J66/$J$84</f>
-        <v>7.0921985815602835E-3</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3231,7 +3233,7 @@
       <c r="G67" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H67" s="96">
+      <c r="H67" s="94">
         <v>0</v>
       </c>
       <c r="I67" s="73" t="s">
@@ -3243,7 +3245,7 @@
       </c>
       <c r="K67" s="75">
         <f>J67/$J$84</f>
-        <v>7.0921985815602835E-3</v>
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3260,17 +3262,17 @@
       <c r="J69" s="30"/>
       <c r="K69" s="76">
         <f>SUM(K70:K74)</f>
-        <v>5.6737588652482268E-2</v>
+        <v>5.3691275167785234E-2</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="E70" s="88" t="s">
         <v>151</v>
       </c>
-      <c r="G70" s="101" t="s">
+      <c r="G70" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="H70" s="99">
+      <c r="H70" s="97">
         <v>0</v>
       </c>
       <c r="I70" s="68" t="s">
@@ -3282,7 +3284,7 @@
       </c>
       <c r="K70" s="70">
         <f>J70/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
@@ -3292,7 +3294,7 @@
       <c r="G71" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="95">
+      <c r="H71" s="93">
         <v>0</v>
       </c>
       <c r="I71" s="71" t="s">
@@ -3304,7 +3306,7 @@
       </c>
       <c r="K71" s="72">
         <f>J71/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
@@ -3312,7 +3314,7 @@
       <c r="G72" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H72" s="95">
+      <c r="H72" s="93">
         <v>0</v>
       </c>
       <c r="I72" s="71" t="s">
@@ -3332,7 +3334,7 @@
       <c r="G73" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H73" s="95">
+      <c r="H73" s="93">
         <v>0</v>
       </c>
       <c r="I73" s="71" t="s">
@@ -3352,7 +3354,7 @@
       <c r="G74" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="H74" s="96">
+      <c r="H74" s="94">
         <v>0</v>
       </c>
       <c r="I74" s="73" t="s">
@@ -3381,7 +3383,7 @@
       <c r="J76" s="30"/>
       <c r="K76" s="76">
         <f>SUM(K77:K83)</f>
-        <v>0.1985815602836879</v>
+        <v>0.1879194630872483</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
@@ -3404,7 +3406,7 @@
       </c>
       <c r="K77" s="70">
         <f t="shared" ref="K77:K83" si="11">J77/$J$84</f>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
@@ -3427,7 +3429,7 @@
       </c>
       <c r="K78" s="72">
         <f t="shared" si="11"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
@@ -3450,7 +3452,7 @@
       </c>
       <c r="K79" s="72">
         <f t="shared" si="11"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
@@ -3473,7 +3475,7 @@
       </c>
       <c r="K80" s="72">
         <f t="shared" si="11"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="81" spans="5:11" x14ac:dyDescent="0.2">
@@ -3496,7 +3498,7 @@
       </c>
       <c r="K81" s="72">
         <f t="shared" si="11"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="82" spans="5:11" x14ac:dyDescent="0.2">
@@ -3519,7 +3521,7 @@
       </c>
       <c r="K82" s="72">
         <f t="shared" si="11"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="83" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3529,7 +3531,7 @@
       <c r="G83" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="97">
+      <c r="H83" s="95">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
@@ -3542,7 +3544,7 @@
       </c>
       <c r="K83" s="75">
         <f t="shared" si="11"/>
-        <v>2.8368794326241134E-2</v>
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="84" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3553,7 +3555,7 @@
       </c>
       <c r="J84" s="1">
         <f>SUM(J5:J83)</f>
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4054,15 +4056,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A232B5-B804-F542-A152-E639116A203C}">
   <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60:C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="3" max="3" width="31" style="102" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
@@ -4074,7 +4076,7 @@
       <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="102" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4085,8 +4087,8 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>2.8368794326241134E-2</v>
+      <c r="C2" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
       <c r="E2" s="65"/>
     </row>
@@ -4097,8 +4099,8 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>2.8368794326241134E-2</v>
+      <c r="C3" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
       <c r="E3" s="65"/>
     </row>
@@ -4109,8 +4111,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>2.8368794326241134E-2</v>
+      <c r="C4" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
       <c r="E4" s="65"/>
     </row>
@@ -4121,8 +4123,8 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2.8368794326241134E-2</v>
+      <c r="C5" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
       <c r="E5" s="65"/>
     </row>
@@ -4133,8 +4135,8 @@
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6">
-        <v>2.8368794326241134E-2</v>
+      <c r="C6" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4144,7 +4146,7 @@
       <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4155,8 +4157,8 @@
       <c r="B8" t="s">
         <v>156</v>
       </c>
-      <c r="C8">
-        <v>2.8368794326241134E-2</v>
+      <c r="C8" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4166,7 +4168,7 @@
       <c r="B9" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4177,8 +4179,8 @@
       <c r="B10" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>2.8368794326241134E-2</v>
+      <c r="C10" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4188,7 +4190,7 @@
       <c r="B11" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4199,7 +4201,7 @@
       <c r="B12" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4210,7 +4212,7 @@
       <c r="B13" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4221,8 +4223,8 @@
       <c r="B14" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="C14">
-        <v>7.0921985815602835E-3</v>
+      <c r="C14" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4232,7 +4234,7 @@
       <c r="B15" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4243,7 +4245,7 @@
       <c r="B16" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4254,7 +4256,7 @@
       <c r="B17" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4265,7 +4267,7 @@
       <c r="B18" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4276,7 +4278,7 @@
       <c r="B19" s="56" t="s">
         <v>165</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4287,8 +4289,8 @@
       <c r="B20" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
-        <v>2.8368794326241134E-2</v>
+      <c r="C20" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4298,7 +4300,7 @@
       <c r="B21" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4309,7 +4311,7 @@
       <c r="B22" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4320,8 +4322,8 @@
       <c r="B23" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C23" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4331,8 +4333,8 @@
       <c r="B24" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <v>2.8368794326241134E-2</v>
+      <c r="C24" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4342,8 +4344,8 @@
       <c r="B25" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
-        <v>2.8368794326241134E-2</v>
+      <c r="C25" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4353,8 +4355,8 @@
       <c r="B26" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="65">
-        <v>0</v>
+      <c r="C26" s="103">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -4364,8 +4366,8 @@
       <c r="B27" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="65">
-        <v>0</v>
+      <c r="C27" s="103">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -4375,8 +4377,8 @@
       <c r="B28" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="C28" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -4386,8 +4388,8 @@
       <c r="B29" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="C29" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -4397,8 +4399,8 @@
       <c r="B30" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="65">
-        <v>0</v>
+      <c r="C30" s="103">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -4408,8 +4410,8 @@
       <c r="B31" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C31" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -4419,7 +4421,7 @@
       <c r="B32" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="65">
+      <c r="C32" s="103">
         <v>0</v>
       </c>
     </row>
@@ -4430,8 +4432,8 @@
       <c r="B33" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C33" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -4441,7 +4443,7 @@
       <c r="B34" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="65">
+      <c r="C34" s="103">
         <v>0</v>
       </c>
     </row>
@@ -4452,8 +4454,8 @@
       <c r="B35" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="C35" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -4463,8 +4465,8 @@
       <c r="B36" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="C36" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C36" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -4474,8 +4476,8 @@
       <c r="B37" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C37">
-        <v>2.8368794326241134E-2</v>
+      <c r="C37" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,8 +4487,8 @@
       <c r="B38" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C38" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -4496,8 +4498,8 @@
       <c r="B39" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="65">
-        <v>0</v>
+      <c r="C39" s="103">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -4507,8 +4509,8 @@
       <c r="B40" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="65">
-        <v>0</v>
+      <c r="C40" s="103">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -4518,8 +4520,8 @@
       <c r="B41" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C41" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -4529,8 +4531,8 @@
       <c r="B42" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="65">
-        <v>7.0921985815602835E-3</v>
+      <c r="C42" s="103">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -4540,8 +4542,8 @@
       <c r="B43" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C43" s="103">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -4551,8 +4553,8 @@
       <c r="B44" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
-        <v>2.8368794326241134E-2</v>
+      <c r="C44" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,8 +4564,8 @@
       <c r="B45" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C45">
-        <v>2.8368794326241134E-2</v>
+      <c r="C45" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -4573,8 +4575,8 @@
       <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C46">
-        <v>2.8368794326241134E-2</v>
+      <c r="C46" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -4584,7 +4586,7 @@
       <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4595,8 +4597,8 @@
       <c r="B48" t="s">
         <v>27</v>
       </c>
-      <c r="C48">
-        <v>2.8368794326241134E-2</v>
+      <c r="C48" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -4606,8 +4608,8 @@
       <c r="B49" t="s">
         <v>26</v>
       </c>
-      <c r="C49">
-        <v>2.8368794326241134E-2</v>
+      <c r="C49" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,8 +4619,8 @@
       <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C50">
-        <v>2.8368794326241134E-2</v>
+      <c r="C50" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,8 +4630,8 @@
       <c r="B51" t="s">
         <v>29</v>
       </c>
-      <c r="C51">
-        <v>2.8368794326241134E-2</v>
+      <c r="C51" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -4639,8 +4641,8 @@
       <c r="B52" t="s">
         <v>15</v>
       </c>
-      <c r="C52">
-        <v>7.0921985815602835E-3</v>
+      <c r="C52" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -4650,8 +4652,8 @@
       <c r="B53" t="s">
         <v>14</v>
       </c>
-      <c r="C53">
-        <v>7.0921985815602835E-3</v>
+      <c r="C53" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -4661,8 +4663,8 @@
       <c r="B54" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C54">
-        <v>7.0921985815602835E-3</v>
+      <c r="C54" s="102">
+        <v>6.7114093959731542E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -4672,8 +4674,8 @@
       <c r="B55" t="s">
         <v>21</v>
       </c>
-      <c r="C55">
-        <v>2.8368794326241134E-2</v>
+      <c r="C55" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,8 +4685,8 @@
       <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="C56">
-        <v>2.8368794326241134E-2</v>
+      <c r="C56" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,7 +4696,7 @@
       <c r="B57" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4705,7 +4707,7 @@
       <c r="B58" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4716,7 +4718,7 @@
       <c r="B59" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="102">
         <v>0</v>
       </c>
     </row>
@@ -4727,8 +4729,8 @@
       <c r="B60" t="s">
         <v>34</v>
       </c>
-      <c r="C60">
-        <v>2.8368794326241134E-2</v>
+      <c r="C60" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -4738,8 +4740,8 @@
       <c r="B61" t="s">
         <v>35</v>
       </c>
-      <c r="C61">
-        <v>2.8368794326241134E-2</v>
+      <c r="C61" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,8 +4751,8 @@
       <c r="B62" t="s">
         <v>36</v>
       </c>
-      <c r="C62">
-        <v>2.8368794326241134E-2</v>
+      <c r="C62" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -4760,8 +4762,8 @@
       <c r="B63" t="s">
         <v>37</v>
       </c>
-      <c r="C63">
-        <v>2.8368794326241134E-2</v>
+      <c r="C63" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -4771,8 +4773,8 @@
       <c r="B64" t="s">
         <v>38</v>
       </c>
-      <c r="C64">
-        <v>2.8368794326241134E-2</v>
+      <c r="C64" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -4782,8 +4784,8 @@
       <c r="B65" t="s">
         <v>39</v>
       </c>
-      <c r="C65">
-        <v>2.8368794326241134E-2</v>
+      <c r="C65" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -4793,8 +4795,8 @@
       <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C66">
-        <v>2.8368794326241134E-2</v>
+      <c r="C66" s="102">
+        <v>2.6845637583892617E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4808,8 +4810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE3C14-E62B-4E42-8D85-5A7A0A1D9816}">
   <dimension ref="B1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4822,14 +4824,14 @@
   <sheetData>
     <row r="1" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="E2" s="93" t="s">
+      <c r="C2" s="101"/>
+      <c r="E2" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="2:6" ht="19" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="31"/>
@@ -5618,7 +5620,7 @@
       <c r="C62" s="5">
         <v>4.7619047999999997E-2</v>
       </c>
-      <c r="E62" s="100" t="s">
+      <c r="E62" s="98" t="s">
         <v>108</v>
       </c>
       <c r="F62" s="44">
@@ -5656,7 +5658,7 @@
       <c r="E65" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="98">
+      <c r="F65" s="96">
         <v>7.0921985815602835E-3</v>
       </c>
     </row>
@@ -5672,7 +5674,7 @@
       <c r="E67" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="F67" s="96">
+      <c r="F67" s="94">
         <v>7.0921985815602835E-3</v>
       </c>
     </row>
@@ -5686,10 +5688,10 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E70" s="101" t="s">
+      <c r="E70" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="F70" s="99">
+      <c r="F70" s="97">
         <v>2.8368794326241134E-2</v>
       </c>
     </row>
@@ -5697,7 +5699,7 @@
       <c r="E71" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="F71" s="95">
+      <c r="F71" s="93">
         <v>2.8368794326241134E-2</v>
       </c>
     </row>
@@ -5705,7 +5707,7 @@
       <c r="E72" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F72" s="95">
+      <c r="F72" s="93">
         <v>0</v>
       </c>
     </row>
@@ -5713,7 +5715,7 @@
       <c r="E73" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F73" s="95">
+      <c r="F73" s="93">
         <v>0</v>
       </c>
     </row>
@@ -5721,7 +5723,7 @@
       <c r="E74" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="96">
+      <c r="F74" s="94">
         <v>0</v>
       </c>
     </row>
@@ -5786,7 +5788,7 @@
       <c r="E83" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F83" s="97">
+      <c r="F83" s="95">
         <v>2.8368794326241134E-2</v>
       </c>
     </row>
